--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N2">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O2">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P2">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q2">
-        <v>8.452362240251999</v>
+        <v>9.717875922287998</v>
       </c>
       <c r="R2">
-        <v>76.07126016226799</v>
+        <v>87.46088330059199</v>
       </c>
       <c r="S2">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="T2">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>83.72704</v>
       </c>
       <c r="O3">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P3">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q3">
         <v>7.36764461184</v>
@@ -641,10 +641,10 @@
         <v>66.30880150656</v>
       </c>
       <c r="S3">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="T3">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N4">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q4">
-        <v>5.358923225508001</v>
+        <v>5.79614648682</v>
       </c>
       <c r="R4">
-        <v>48.23030902957201</v>
+        <v>52.16531838138</v>
       </c>
       <c r="S4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="T4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N5">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q5">
-        <v>7.353963785724</v>
+        <v>3.492820300224</v>
       </c>
       <c r="R5">
-        <v>66.185674071516</v>
+        <v>31.435382702016</v>
       </c>
       <c r="S5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="T5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N6">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q6">
-        <v>4.639287009732001</v>
+        <v>5.829034815828</v>
       </c>
       <c r="R6">
-        <v>41.75358308758801</v>
+        <v>52.46131334245199</v>
       </c>
       <c r="S6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="T6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N7">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O7">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P7">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q7">
-        <v>5.931520765164001</v>
+        <v>5.190398654063999</v>
       </c>
       <c r="R7">
-        <v>53.38368688647601</v>
+        <v>46.713587886576</v>
       </c>
       <c r="S7">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="T7">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
     </row>
   </sheetData>
